--- a/data/trans_orig/P1417-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10394</v>
+        <v>10625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005812360363774469</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02193849581790886</v>
+        <v>0.02242691383729215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8428</v>
+        <v>9137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01016100303547596</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003196992758931812</v>
+        <v>0.003179688723411931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02748200986212723</v>
+        <v>0.0297937565916981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13472</v>
+        <v>14381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007521158811571566</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00258370736539784</v>
+        <v>0.002578305502936413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01726191096010126</v>
+        <v>0.01842578868464776</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>471022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463382</v>
+        <v>463151</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>473776</v>
@@ -824,7 +824,7 @@
         <v>0.9941876396362256</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9780615041820904</v>
+        <v>0.9775730861627075</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>303564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298252</v>
+        <v>297543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305700</v>
+        <v>305705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.989838996964524</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9725179901378728</v>
+        <v>0.9702062434083008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968030072410682</v>
+        <v>0.9968203112765881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>748</v>
@@ -857,19 +857,19 @@
         <v>774587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>766985</v>
+        <v>766076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>778441</v>
+        <v>778445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9924788411884284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9827380890398988</v>
+        <v>0.9815742113153523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9974162926346022</v>
+        <v>0.9974216944970636</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4570</v>
+        <v>5444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002477504327830731</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01245342340041789</v>
+        <v>0.01483683378476056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5312</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1959</v>
+        <v>1971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11705</v>
+        <v>11997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01428452937841792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005268083668835979</v>
+        <v>0.005300864591347876</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0314753175551807</v>
+        <v>0.03226070910678678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>6221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2117</v>
+        <v>2903</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12955</v>
+        <v>12957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008420416744718178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002865325524048679</v>
+        <v>0.003929781079023186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01753454556352179</v>
+        <v>0.01753797173097131</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>366025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362364</v>
+        <v>361490</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>366934</v>
@@ -1041,7 +1041,7 @@
         <v>0.9975224956721692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875465765995821</v>
+        <v>0.9851631662152392</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>366553</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360160</v>
+        <v>359868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369906</v>
+        <v>369894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.985715470621582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9685246824448194</v>
+        <v>0.9677392908932133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947319163311641</v>
+        <v>0.9946991354086522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>707</v>
@@ -1074,19 +1074,19 @@
         <v>732578</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725844</v>
+        <v>725842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736682</v>
+        <v>735896</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915795832552818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9824654544364783</v>
+        <v>0.9824620282690286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971346744759513</v>
+        <v>0.9960702189209768</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10031</v>
+        <v>9775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006087458007074029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001482727122140758</v>
+        <v>0.00150537304756823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01849468726036382</v>
+        <v>0.01802254329106263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>6034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2897</v>
+        <v>2695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12817</v>
+        <v>12622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03596542311969793</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01726429447677186</v>
+        <v>0.01606248732935541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07639261366172452</v>
+        <v>0.07523135357492662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1220,19 +1220,19 @@
         <v>9336</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4669</v>
+        <v>4611</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17393</v>
+        <v>17759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01314629590448498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006574746880292521</v>
+        <v>0.006492719738522892</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02449133992880407</v>
+        <v>0.02500657074424237</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532358</v>
+        <v>532614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541585</v>
+        <v>541573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.993912541992926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9815053127396359</v>
+        <v>0.9819774567089373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985172728778592</v>
+        <v>0.9984946269524319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -1270,19 +1270,19 @@
         <v>161748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154965</v>
+        <v>155160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164885</v>
+        <v>165087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.964034576880302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.923607386338275</v>
+        <v>0.9247686464250722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9827357055232281</v>
+        <v>0.9839375126706402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>687</v>
@@ -1291,19 +1291,19 @@
         <v>700835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>692778</v>
+        <v>692412</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>705502</v>
+        <v>705560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.986853704095515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9755086600711956</v>
+        <v>0.9749934292557575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9934252531197074</v>
+        <v>0.9935072802614771</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6878</v>
+        <v>6936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001589680024569928</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005554563768235031</v>
+        <v>0.005600792036712426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>8775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4433</v>
+        <v>4049</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16791</v>
+        <v>15804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01228515870750732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006206404797570316</v>
+        <v>0.005668582062856578</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02350808546896127</v>
+        <v>0.02212539555339708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1437,19 +1437,19 @@
         <v>10744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6061</v>
+        <v>5595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20146</v>
+        <v>19028</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00550217942357611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003104127118545093</v>
+        <v>0.002865573304974157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01031731726443865</v>
+        <v>0.009744863645926943</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>1236365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1231456</v>
+        <v>1231398</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1238334</v>
@@ -1475,7 +1475,7 @@
         <v>0.9984103199754301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.994445436231765</v>
+        <v>0.9943992079632876</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>705510</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>697494</v>
+        <v>698481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>709852</v>
+        <v>710236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9877148412924927</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9764919145310387</v>
+        <v>0.977874604446603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9937935952024296</v>
+        <v>0.9943314179371434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1907</v>
@@ -1508,19 +1508,19 @@
         <v>1941876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1932474</v>
+        <v>1933592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1946559</v>
+        <v>1947025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9944978205764239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9896826827355614</v>
+        <v>0.9902551363540733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996895872881455</v>
+        <v>0.9971344266950258</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4548</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1768</v>
+        <v>1780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10073</v>
+        <v>10183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01297323378900189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005044383214235113</v>
+        <v>0.005076989255746094</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02873353598712896</v>
+        <v>0.02904919934612741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>11180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6021</v>
+        <v>5648</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21121</v>
+        <v>21096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0196567829146235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0105870916642063</v>
+        <v>0.009930055372447042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03713606153765561</v>
+        <v>0.03709091821001265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1654,19 +1654,19 @@
         <v>15728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8985</v>
+        <v>9174</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26312</v>
+        <v>25926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01710817501279184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009774036349967942</v>
+        <v>0.009979553780778107</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02862177496365311</v>
+        <v>0.0282014921863683</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>346007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>340482</v>
+        <v>340372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>348787</v>
+        <v>348775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9870267662109982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9712664640128711</v>
+        <v>0.9709508006538716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9949556167857648</v>
+        <v>0.9949230107442538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>529</v>
@@ -1704,19 +1704,19 @@
         <v>557572</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>547631</v>
+        <v>547656</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>562731</v>
+        <v>563104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9803432170853765</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9628639384623439</v>
+        <v>0.9629090817899875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9894129083357933</v>
+        <v>0.9900699446275532</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>864</v>
@@ -1725,19 +1725,19 @@
         <v>903579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>892995</v>
+        <v>893381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>910322</v>
+        <v>910133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9828918249872082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.971378225036347</v>
+        <v>0.9717985078136318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9902259636500321</v>
+        <v>0.9900204462192219</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>23256</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14712</v>
+        <v>14645</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35184</v>
+        <v>34712</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.018622914559632</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01178120816877977</v>
+        <v>0.01172739257556135</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02817539423607767</v>
+        <v>0.02779754316265189</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1863,19 +1863,19 @@
         <v>23256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15023</v>
+        <v>14606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34279</v>
+        <v>35468</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01503305962469268</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009711132877003176</v>
+        <v>0.009441823663531046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02215922333601509</v>
+        <v>0.02292779338231791</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1225504</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1213576</v>
+        <v>1214048</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1234048</v>
+        <v>1234115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9813770854403679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9718246057639223</v>
+        <v>0.9722024568373481</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9882187918312202</v>
+        <v>0.9882726074244387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1522</v>
@@ -1926,19 +1926,19 @@
         <v>1523704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1512681</v>
+        <v>1511492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1531937</v>
+        <v>1532354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9849669403753073</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9778407766639852</v>
+        <v>0.9770722066176822</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9902888671229968</v>
+        <v>0.9905581763364689</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>13481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7141</v>
+        <v>7336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23374</v>
+        <v>23244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004122391141338842</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002183639655163112</v>
+        <v>0.002243383021538265</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007147505341097778</v>
+        <v>0.00710796532780666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -2051,19 +2051,19 @@
         <v>57673</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44301</v>
+        <v>44500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76614</v>
+        <v>74147</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0170724723132554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0131141765330967</v>
+        <v>0.01317298904435431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02267959600345288</v>
+        <v>0.02194918372489509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -2072,19 +2072,19 @@
         <v>71154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56421</v>
+        <v>55660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90849</v>
+        <v>90213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0107025526903223</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00848656624351582</v>
+        <v>0.008372100957632198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01366502212191012</v>
+        <v>0.01356933971735029</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3256709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3246816</v>
+        <v>3246946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3263049</v>
+        <v>3262854</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9958776088586612</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9928524946589022</v>
+        <v>0.9928920346721933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9978163603448369</v>
+        <v>0.9977566169784617</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3241</v>
@@ -2122,19 +2122,19 @@
         <v>3320451</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3301510</v>
+        <v>3303977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3333823</v>
+        <v>3333624</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9829275276867446</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9773204039965468</v>
+        <v>0.9780508162751046</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9868858234669033</v>
+        <v>0.9868270109556456</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6435</v>
@@ -2143,19 +2143,19 @@
         <v>6577160</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6557465</v>
+        <v>6558101</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6591893</v>
+        <v>6592654</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9892974473096777</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9863349778780899</v>
+        <v>0.9864306602826497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9915134337564843</v>
+        <v>0.9916278990423677</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6834</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004531835298207771</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01563073847175597</v>
+        <v>0.01573616967791036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2510,19 +2510,19 @@
         <v>7114</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3021</v>
+        <v>2979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13801</v>
+        <v>13304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02262242791573833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009608222891313405</v>
+        <v>0.009472552381147983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04388942833056834</v>
+        <v>0.04230936960339658</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2531,19 +2531,19 @@
         <v>9095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4875</v>
+        <v>4063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15425</v>
+        <v>16515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0120999188931439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00648550816447522</v>
+        <v>0.005404749784907935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02052175549692429</v>
+        <v>0.02197178792888953</v>
       </c>
     </row>
     <row r="5">
@@ -2560,7 +2560,7 @@
         <v>435230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430377</v>
+        <v>430331</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2569,7 +2569,7 @@
         <v>0.9954681647017922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9843692615282441</v>
+        <v>0.9842638303220897</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2581,19 +2581,19 @@
         <v>307340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300653</v>
+        <v>301150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311433</v>
+        <v>311475</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9773775720842617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9561105716694316</v>
+        <v>0.9576906303966033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9903917771086866</v>
+        <v>0.990527447618852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>678</v>
@@ -2602,19 +2602,19 @@
         <v>742570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736240</v>
+        <v>735150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746790</v>
+        <v>747602</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879000811068561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9794782445030757</v>
+        <v>0.9780282120711103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9935144918355249</v>
+        <v>0.994595250215092</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5223</v>
+        <v>5185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002458392281052098</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01247180169141032</v>
+        <v>0.0123815329376978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2727,19 +2727,19 @@
         <v>7307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3046</v>
+        <v>3027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15163</v>
+        <v>14270</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02161664727687832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009010618378847457</v>
+        <v>0.008956319269735311</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04485879668092521</v>
+        <v>0.04221614061223439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -2748,19 +2748,19 @@
         <v>8336</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4003</v>
+        <v>3997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15649</v>
+        <v>16515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0110149909632681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005289286475848401</v>
+        <v>0.005282014372140905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02067792381391959</v>
+        <v>0.02182212064402392</v>
       </c>
     </row>
     <row r="8">
@@ -2777,7 +2777,7 @@
         <v>417767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413574</v>
+        <v>413612</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -2786,7 +2786,7 @@
         <v>0.997541607718948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875281983085897</v>
+        <v>0.9876184670623023</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2798,19 +2798,19 @@
         <v>330704</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>322848</v>
+        <v>323741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334965</v>
+        <v>334984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9783833527231217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9551412033190748</v>
+        <v>0.9577838593877656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9909893816211526</v>
+        <v>0.9910436807302647</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -2819,19 +2819,19 @@
         <v>748472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>741159</v>
+        <v>740293</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752805</v>
+        <v>752811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9889850090367319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9793220761860801</v>
+        <v>0.9781778793559761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9947107135241515</v>
+        <v>0.9947179856278591</v>
       </c>
     </row>
     <row r="9">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5309</v>
+        <v>4283</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00166917860919348</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008434367482637876</v>
+        <v>0.00680469882780262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2944,19 +2944,19 @@
         <v>4937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1949</v>
+        <v>1874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10977</v>
+        <v>10501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01897984699302188</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007491944575251087</v>
+        <v>0.007203317189538812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04219786265695913</v>
+        <v>0.04036833596711419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2965,19 +2965,19 @@
         <v>5988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2040</v>
+        <v>2777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12110</v>
+        <v>13142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006731337462999637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002293753820059125</v>
+        <v>0.003121806869680811</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01361356738915706</v>
+        <v>0.01477343050918808</v>
       </c>
     </row>
     <row r="11">
@@ -2994,7 +2994,7 @@
         <v>628364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624106</v>
+        <v>625132</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>629415</v>
@@ -3003,7 +3003,7 @@
         <v>0.9983308213908065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.991565632517361</v>
+        <v>0.9931953011721973</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3015,19 +3015,19 @@
         <v>255192</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249152</v>
+        <v>249628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258180</v>
+        <v>258255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9810201530069781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9578021373430409</v>
+        <v>0.9596316640328855</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9925080554247488</v>
+        <v>0.9927966828104612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>829</v>
@@ -3036,19 +3036,19 @@
         <v>883556</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>877434</v>
+        <v>876402</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>887504</v>
+        <v>886767</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9932686625370004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9863864326108429</v>
+        <v>0.9852265694908118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9977062461799409</v>
+        <v>0.9968781931303192</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>7203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3083</v>
+        <v>3116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14648</v>
+        <v>14364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0062151727738578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002659683901505477</v>
+        <v>0.002688081067639252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01263817848802257</v>
+        <v>0.012393458416787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3161,19 +3161,19 @@
         <v>16789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9459</v>
+        <v>10120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25699</v>
+        <v>27682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02195498711526178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01236976337516605</v>
+        <v>0.0132329545897883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03360575436586637</v>
+        <v>0.03619833545004636</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3182,19 +3182,19 @@
         <v>23993</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15744</v>
+        <v>15529</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36228</v>
+        <v>33446</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01247206761828867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008183893572224019</v>
+        <v>0.008072585543215806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01883194114982226</v>
+        <v>0.01738625992339086</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>1151806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1144361</v>
+        <v>1144645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1155926</v>
+        <v>1155893</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9937848272261423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9873618215119775</v>
+        <v>0.987606541583213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973403160984945</v>
+        <v>0.9973119189323608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>694</v>
@@ -3232,19 +3232,19 @@
         <v>747933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>739023</v>
+        <v>737040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>755263</v>
+        <v>754602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9780450128847382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9663942456341336</v>
+        <v>0.9638016645499535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.987630236624834</v>
+        <v>0.9867670454102117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1770</v>
@@ -3253,19 +3253,19 @@
         <v>1899738</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1887503</v>
+        <v>1890285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1907987</v>
+        <v>1908202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9875279323817113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9811680588501778</v>
+        <v>0.9826137400766092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991816106427776</v>
+        <v>0.9919274144567842</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>4059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1126</v>
+        <v>980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10339</v>
+        <v>9667</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007950411474357341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002205883501392703</v>
+        <v>0.001918734790661376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0202480072041126</v>
+        <v>0.01893336027656682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3378,19 +3378,19 @@
         <v>32734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22250</v>
+        <v>22622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46200</v>
+        <v>47564</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0430573482079589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02926627138683484</v>
+        <v>0.02975650922484368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0607699923075369</v>
+        <v>0.06256352129502911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3399,19 +3399,19 @@
         <v>36794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25014</v>
+        <v>24706</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50586</v>
+        <v>51146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02895216195872375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0196830778598778</v>
+        <v>0.01944074206855743</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03980522600058573</v>
+        <v>0.0402458966507727</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>506537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>500257</v>
+        <v>500929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509470</v>
+        <v>509616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9920495885256426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9797519927958873</v>
+        <v>0.9810666397234337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977941164986074</v>
+        <v>0.9980812652093387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>673</v>
@@ -3449,19 +3449,19 @@
         <v>727512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>714046</v>
+        <v>712682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>737996</v>
+        <v>737624</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9569426517920411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9392300076924632</v>
+        <v>0.9374364787049708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9707337286131652</v>
+        <v>0.9702434907751564</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1156</v>
@@ -3470,19 +3470,19 @@
         <v>1234049</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1220257</v>
+        <v>1219697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1245829</v>
+        <v>1246137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9710478380412763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9601947739994144</v>
+        <v>0.9597541033492275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9803169221401221</v>
+        <v>0.9805592579314427</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>26623</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16672</v>
+        <v>17126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39787</v>
+        <v>38753</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0240216197474833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01504282628634585</v>
+        <v>0.01545250859907011</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03589860794537263</v>
+        <v>0.03496567731882341</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -3608,19 +3608,19 @@
         <v>26623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17636</v>
+        <v>18249</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39434</v>
+        <v>39894</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01935975368804191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01282458053976363</v>
+        <v>0.01327015218267388</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02867554483160136</v>
+        <v>0.02901006320859387</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>1081682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1068518</v>
+        <v>1069552</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1091633</v>
+        <v>1091179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9759783802525167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9641013920546272</v>
+        <v>0.9650343226811765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9849571737136541</v>
+        <v>0.9845474914009298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -3671,19 +3671,19 @@
         <v>1348564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1335753</v>
+        <v>1335293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357551</v>
+        <v>1356938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9806402463119581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9713244551683987</v>
+        <v>0.9709899367914051</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.987175419460237</v>
+        <v>0.9867298478173261</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>15324</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8018</v>
+        <v>9128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24308</v>
+        <v>25373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004478327342354628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002343082097270808</v>
+        <v>0.002667502599056913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007103639876945235</v>
+        <v>0.007414822743611093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -3796,19 +3796,19 @@
         <v>95505</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77641</v>
+        <v>78130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118525</v>
+        <v>115556</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02693403466675429</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02189617850425373</v>
+        <v>0.0220340209747801</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03342631841662293</v>
+        <v>0.03258888468683065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -3817,19 +3817,19 @@
         <v>110829</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91467</v>
+        <v>89146</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134085</v>
+        <v>132613</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0159059267593556</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01312715650977007</v>
+        <v>0.01279405558370698</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01924358654105447</v>
+        <v>0.01903225880463793</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>3406586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3397602</v>
+        <v>3396537</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3413892</v>
+        <v>3412782</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9955216726576454</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9928963601230545</v>
+        <v>0.9925851772563883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.997656917902729</v>
+        <v>0.9973324974009431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3198</v>
@@ -3867,19 +3867,19 @@
         <v>3450363</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3427343</v>
+        <v>3430312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3468227</v>
+        <v>3467738</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9730659653332457</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9665736815833766</v>
+        <v>0.9674111153131693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9781038214957462</v>
+        <v>0.9779659790252198</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6388</v>
@@ -3888,19 +3888,19 @@
         <v>6856949</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6833693</v>
+        <v>6835165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6876311</v>
+        <v>6878632</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9840940732406444</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9807564134589455</v>
+        <v>0.980967741195362</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9868728434902301</v>
+        <v>0.9872059444162928</v>
       </c>
     </row>
     <row r="24">
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5809</v>
+        <v>5778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002368917722871329</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01353842698788675</v>
+        <v>0.0134666423413217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9853</v>
+        <v>10358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007839859597126516</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02838929836393806</v>
+        <v>0.02984533305341632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4276,19 +4276,19 @@
         <v>3737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11643</v>
+        <v>11219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004815255109891296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001172357422842627</v>
+        <v>0.001169394303095927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0150007410244758</v>
+        <v>0.01445448867549225</v>
       </c>
     </row>
     <row r="5">
@@ -4305,7 +4305,7 @@
         <v>428076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423283</v>
+        <v>423314</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>429092</v>
@@ -4314,7 +4314,7 @@
         <v>0.9976310822771287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9864615730121139</v>
+        <v>0.9865333576586778</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>344334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337202</v>
+        <v>336697</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -4335,7 +4335,7 @@
         <v>0.9921601404028735</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9716107016360619</v>
+        <v>0.9701546669465823</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4347,19 +4347,19 @@
         <v>772410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>764504</v>
+        <v>764928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775237</v>
+        <v>775239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9951847448901087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9849992589755233</v>
+        <v>0.9855455113245077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988276425771574</v>
+        <v>0.9988306056969041</v>
       </c>
     </row>
     <row r="6">
@@ -4451,19 +4451,19 @@
         <v>3027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8126</v>
+        <v>8070</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00802498920361024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002426575317361442</v>
+        <v>0.002402880564720314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0215414924157633</v>
+        <v>0.02139258922339264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4472,19 +4472,19 @@
         <v>4890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10813</v>
+        <v>11128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01313500542617954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005135012921901308</v>
+        <v>0.005138065355583844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02904570726772679</v>
+        <v>0.02989294490503669</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4493,19 +4493,19 @@
         <v>7917</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3768</v>
+        <v>3868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14432</v>
+        <v>14998</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01056311031410443</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005027164252887379</v>
+        <v>0.005160108808751423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01925585594791523</v>
+        <v>0.02001092861169881</v>
       </c>
     </row>
     <row r="8">
@@ -4522,19 +4522,19 @@
         <v>374200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369101</v>
+        <v>369157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376312</v>
+        <v>376321</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919750107963897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9784585075842367</v>
+        <v>0.9786074107766073</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975734246826385</v>
+        <v>0.9975971194352797</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -4543,19 +4543,19 @@
         <v>367383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361460</v>
+        <v>361145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370361</v>
+        <v>370360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9868649945738205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9709542927322732</v>
+        <v>0.9701070550949636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9948649870780987</v>
+        <v>0.9948619346444162</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -4564,19 +4564,19 @@
         <v>741583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>735068</v>
+        <v>734502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745732</v>
+        <v>745632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9894368896858956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9807441440520855</v>
+        <v>0.9799890713883013</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949728357471127</v>
+        <v>0.9948398911912486</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>5101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1704</v>
+        <v>1587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11640</v>
+        <v>11717</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009773789271759455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003264043135795393</v>
+        <v>0.003041130978358505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02230223212232958</v>
+        <v>0.02244925488026236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4689,19 +4689,19 @@
         <v>7216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3139</v>
+        <v>3055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14679</v>
+        <v>13837</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04343562176375289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01889603396534851</v>
+        <v>0.01838713000159114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08836398434174365</v>
+        <v>0.08329617052545765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -4710,19 +4710,19 @@
         <v>12317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6361</v>
+        <v>6422</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20414</v>
+        <v>20692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01790126222923806</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009245007439600408</v>
+        <v>0.00933322582239216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02967053728599344</v>
+        <v>0.03007438953994975</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>516813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510274</v>
+        <v>510197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520210</v>
+        <v>520327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902262107282406</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776977678776705</v>
+        <v>0.9775507451197376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9967359568642046</v>
+        <v>0.9969588690216415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -4760,19 +4760,19 @@
         <v>158907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151444</v>
+        <v>152286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162984</v>
+        <v>163068</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9565643782362471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9116360156582564</v>
+        <v>0.9167038294745424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9811039660346516</v>
+        <v>0.9816128699984089</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -4781,19 +4781,19 @@
         <v>675719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>667622</v>
+        <v>667344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681675</v>
+        <v>681614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.982098737770762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9703294627140066</v>
+        <v>0.9699256104600502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9907549925603996</v>
+        <v>0.9906667741776078</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>4978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11096</v>
+        <v>11823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004330413507610101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001679985428889252</v>
+        <v>0.001697016212797435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009651447210410138</v>
+        <v>0.01028413920867527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4906,19 +4906,19 @@
         <v>18752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12007</v>
+        <v>11685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30126</v>
+        <v>28400</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02270610100747521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01453908872041439</v>
+        <v>0.01414883919381662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03647733308009053</v>
+        <v>0.03438768449449863</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4927,19 +4927,19 @@
         <v>23731</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14840</v>
+        <v>15938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34456</v>
+        <v>35182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01201248254183682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007511750964635951</v>
+        <v>0.008067581494194977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01744133735337414</v>
+        <v>0.01780901561802373</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1144660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1138542</v>
+        <v>1137815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147707</v>
+        <v>1147687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9956695864923899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9903485527895903</v>
+        <v>0.9897158607913247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983200145711107</v>
+        <v>0.9983029837872026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>780</v>
@@ -4977,19 +4977,19 @@
         <v>807124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>795750</v>
+        <v>797476</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>813869</v>
+        <v>814191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772938989925248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9635226669199094</v>
+        <v>0.9656123155055014</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9854609112795853</v>
+        <v>0.9858511608061834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1878</v>
@@ -4998,19 +4998,19 @@
         <v>1951783</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1941058</v>
+        <v>1940332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1960674</v>
+        <v>1959576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879875174581632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9825586626466257</v>
+        <v>0.9821909843819762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9924882490353637</v>
+        <v>0.991932418505805</v>
       </c>
     </row>
     <row r="15">
@@ -5105,16 +5105,16 @@
         <v>889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8097</v>
+        <v>8224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004713477604929051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001432890211308819</v>
+        <v>0.001431975255373057</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01304464268319867</v>
+        <v>0.01324981742884518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -5123,19 +5123,19 @@
         <v>31206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21009</v>
+        <v>20897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45209</v>
+        <v>42437</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04227031316986992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02845831570563627</v>
+        <v>0.02830570534786815</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06123798376657615</v>
+        <v>0.0574836642646251</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -5144,19 +5144,19 @@
         <v>34131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23844</v>
+        <v>22604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47924</v>
+        <v>46887</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02511607753175826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01754559590673211</v>
+        <v>0.01663334358609168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03526557268728506</v>
+        <v>0.03450206463536471</v>
       </c>
     </row>
     <row r="17">
@@ -5173,7 +5173,7 @@
         <v>617780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>612609</v>
+        <v>612482</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>619817</v>
@@ -5182,10 +5182,10 @@
         <v>0.995286522395071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9869553573168011</v>
+        <v>0.9867501825711545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9985671097886912</v>
+        <v>0.998568024744627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>670</v>
@@ -5194,19 +5194,19 @@
         <v>707038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>693035</v>
+        <v>695807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>717235</v>
+        <v>717347</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.95772968683013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9387620162334238</v>
+        <v>0.9425163357353749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9715416842943636</v>
+        <v>0.9716942946521318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1264</v>
@@ -5215,19 +5215,19 @@
         <v>1324819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1311026</v>
+        <v>1312063</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1335106</v>
+        <v>1336346</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9748839224682417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9647344273127139</v>
+        <v>0.9654979353646367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9824544040932677</v>
+        <v>0.9833666564139086</v>
       </c>
     </row>
     <row r="18">
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7249</v>
+        <v>7097</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007128857369954849</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02524510188573719</v>
+        <v>0.02471463972505888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -5340,19 +5340,19 @@
         <v>20804</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12734</v>
+        <v>12828</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31090</v>
+        <v>31582</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01922685992197649</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01176841718816846</v>
+        <v>0.01185584966757305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0287334998971528</v>
+        <v>0.02918820746581642</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5361,19 +5361,19 @@
         <v>22851</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14923</v>
+        <v>14529</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34864</v>
+        <v>34328</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01668964195233321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0108990715355932</v>
+        <v>0.01061135411879045</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02546342592633325</v>
+        <v>0.02507180085261299</v>
       </c>
     </row>
     <row r="20">
@@ -5390,7 +5390,7 @@
         <v>285098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279896</v>
+        <v>280048</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5399,7 +5399,7 @@
         <v>0.9928711426300452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9747548981142629</v>
+        <v>0.9752853602749411</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5411,19 +5411,19 @@
         <v>1061221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1050935</v>
+        <v>1050443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1069291</v>
+        <v>1069197</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9807731400780235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9712665001028471</v>
+        <v>0.9708117925341836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9882315828118315</v>
+        <v>0.9881441503324269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1243</v>
@@ -5432,19 +5432,19 @@
         <v>1346319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1334306</v>
+        <v>1334842</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1354247</v>
+        <v>1354641</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9833103580476668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9745365740736668</v>
+        <v>0.974928199147387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9891009284644069</v>
+        <v>0.9893886458812096</v>
       </c>
     </row>
     <row r="21">
@@ -5536,19 +5536,19 @@
         <v>19096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12113</v>
+        <v>11505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30001</v>
+        <v>29941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005640129023262331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003577772794602872</v>
+        <v>0.003398216082788767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008860894113072787</v>
+        <v>0.008843454359032952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -5557,19 +5557,19 @@
         <v>85588</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68490</v>
+        <v>68220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104542</v>
+        <v>105640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02423507513955658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01939336301765901</v>
+        <v>0.0193170281955428</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02960193894101013</v>
+        <v>0.02991281891580835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -5578,19 +5578,19 @@
         <v>104684</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84757</v>
+        <v>85112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126135</v>
+        <v>127311</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01513366893530643</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01225280091925672</v>
+        <v>0.0123042370881397</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01823471745472247</v>
+        <v>0.01840469392274214</v>
       </c>
     </row>
     <row r="23">
@@ -5607,19 +5607,19 @@
         <v>3366626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3355721</v>
+        <v>3355781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3373609</v>
+        <v>3374217</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9943598709767376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9911391058869272</v>
+        <v>0.991156545640967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9964222272053973</v>
+        <v>0.9966017839172111</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3246</v>
@@ -5628,19 +5628,19 @@
         <v>3446008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3427054</v>
+        <v>3425956</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3463106</v>
+        <v>3463376</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9757649248604434</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9703980610589898</v>
+        <v>0.9700871810841916</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9806066369823409</v>
+        <v>0.9806829718044571</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6451</v>
@@ -5649,19 +5649,19 @@
         <v>6812634</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6791183</v>
+        <v>6790007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6832561</v>
+        <v>6832206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9848663310646936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9817652825452776</v>
+        <v>0.981595306077258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9877471990807436</v>
+        <v>0.9876957629118603</v>
       </c>
     </row>
     <row r="24">
@@ -5995,19 +5995,19 @@
         <v>2861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8301</v>
+        <v>7574</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005195805787900533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001585880412181283</v>
+        <v>0.001571206374322807</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01507520347993623</v>
+        <v>0.01375480661537827</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -6016,19 +6016,19 @@
         <v>17136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10585</v>
+        <v>11267</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24962</v>
+        <v>24969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03508546778678832</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02167226990930441</v>
+        <v>0.0230695148559306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05110772703817264</v>
+        <v>0.05112265316765503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -6037,19 +6037,19 @@
         <v>19997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13480</v>
+        <v>13641</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28889</v>
+        <v>28905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01924587961434417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01297321208284237</v>
+        <v>0.01312875325825803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0278037515164551</v>
+        <v>0.02781912652775293</v>
       </c>
     </row>
     <row r="5">
@@ -6066,19 +6066,19 @@
         <v>547757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>542317</v>
+        <v>543044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>549745</v>
+        <v>549753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9948041942120998</v>
+        <v>0.9948041942120995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849247965200643</v>
+        <v>0.9862451933846219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984141195878188</v>
+        <v>0.998428793625677</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -6087,19 +6087,19 @@
         <v>471275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>463449</v>
+        <v>463442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>477826</v>
+        <v>477144</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9649145322132118</v>
+        <v>0.9649145322132117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9488922729618274</v>
+        <v>0.9488773468323449</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9783277300906956</v>
+        <v>0.9769304851440694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1212</v>
@@ -6108,19 +6108,19 @@
         <v>1019032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010140</v>
+        <v>1010124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1025549</v>
+        <v>1025388</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9807541203856559</v>
+        <v>0.9807541203856558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9721962484835448</v>
+        <v>0.9721808734722471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9870267879171575</v>
+        <v>0.986871246741742</v>
       </c>
     </row>
     <row r="6">
@@ -6212,19 +6212,19 @@
         <v>3924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1385</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9634</v>
+        <v>8228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008119753665009883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002866948822537099</v>
+        <v>0.002157060229077028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01993787413927992</v>
+        <v>0.01702818478876586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -6233,19 +6233,19 @@
         <v>14035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8951</v>
+        <v>8983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21416</v>
+        <v>20857</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03321964613618813</v>
+        <v>0.03321964613618814</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02118701772771635</v>
+        <v>0.02126205726694254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05069003405299461</v>
+        <v>0.04936624886661474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -6254,19 +6254,19 @@
         <v>17959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11673</v>
+        <v>11688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26006</v>
+        <v>26099</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01982832398880907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01288824005663154</v>
+        <v>0.01290437563478952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02871380513884019</v>
+        <v>0.02881626369495423</v>
       </c>
     </row>
     <row r="8">
@@ -6283,19 +6283,19 @@
         <v>479288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473578</v>
+        <v>474984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481827</v>
+        <v>482170</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9918802463349902</v>
+        <v>0.9918802463349901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9800621258607201</v>
+        <v>0.9829718152112347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971330511774629</v>
+        <v>0.997842939770923</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>569</v>
@@ -6304,19 +6304,19 @@
         <v>408457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401076</v>
+        <v>401635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>413541</v>
+        <v>413509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9667803538638119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9493099659470056</v>
+        <v>0.9506337511333853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9788129822722837</v>
+        <v>0.9787379427330575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -6325,19 +6325,19 @@
         <v>887745</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>879698</v>
+        <v>879605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894031</v>
+        <v>894016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801716760111909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.971286194861159</v>
+        <v>0.9711837363050455</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9871117599433683</v>
+        <v>0.98709562436521</v>
       </c>
     </row>
     <row r="9">
@@ -6429,19 +6429,19 @@
         <v>6964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3109</v>
+        <v>3390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13451</v>
+        <v>13774</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01483548195557983</v>
+        <v>0.01483548195557984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006623125346803506</v>
+        <v>0.007221437787836971</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0286560955394413</v>
+        <v>0.02934420298698777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -6450,19 +6450,19 @@
         <v>8507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4992</v>
+        <v>4605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14539</v>
+        <v>14052</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04543771365027739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02666491188903399</v>
+        <v>0.0245988216239807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0776583236447843</v>
+        <v>0.0750574095728864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -6471,19 +6471,19 @@
         <v>15471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10159</v>
+        <v>9667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23620</v>
+        <v>22707</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02356069012366192</v>
+        <v>0.02356069012366193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01547161657479033</v>
+        <v>0.01472292046232874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0359712499450175</v>
+        <v>0.03458212780140376</v>
       </c>
     </row>
     <row r="11">
@@ -6500,19 +6500,19 @@
         <v>462446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455959</v>
+        <v>455636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466301</v>
+        <v>466020</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9851645180444203</v>
+        <v>0.9851645180444201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9713439044605587</v>
+        <v>0.9706557970130124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9933768746531968</v>
+        <v>0.9927785622121632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -6521,19 +6521,19 @@
         <v>178708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172676</v>
+        <v>173163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182223</v>
+        <v>182610</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9545622863497225</v>
+        <v>0.9545622863497226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9223416763552157</v>
+        <v>0.9249425904271134</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.973335088110966</v>
+        <v>0.9754011783760194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -6542,19 +6542,19 @@
         <v>641153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633004</v>
+        <v>633917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646465</v>
+        <v>646957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9764393098763382</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9640287500549823</v>
+        <v>0.9654178721985962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845283834252097</v>
+        <v>0.9852770795376712</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>15492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10437</v>
+        <v>9340</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24691</v>
+        <v>23615</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01368729267801641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009220822135453954</v>
+        <v>0.008251906359909649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02181463104946223</v>
+        <v>0.02086460507533891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -6667,19 +6667,19 @@
         <v>27023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19686</v>
+        <v>20157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36868</v>
+        <v>37087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03144750925532434</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02290977541435854</v>
+        <v>0.02345806209004898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04290450825109188</v>
+        <v>0.04315976459018984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -6688,19 +6688,19 @@
         <v>42515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31443</v>
+        <v>32704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55007</v>
+        <v>54458</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0213519017638549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01579153751850968</v>
+        <v>0.01642480649894204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02762593504280372</v>
+        <v>0.02734990537962719</v>
       </c>
     </row>
     <row r="14">
@@ -6717,19 +6717,19 @@
         <v>1116351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1107152</v>
+        <v>1108228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1121406</v>
+        <v>1122503</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9863127073219834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9781853689505376</v>
+        <v>0.9791353949246612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907791778645461</v>
+        <v>0.9917480936400904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1185</v>
@@ -6738,19 +6738,19 @@
         <v>832275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>822430</v>
+        <v>822211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>839612</v>
+        <v>839141</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9685524907446758</v>
+        <v>0.9685524907446756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9570954917489082</v>
+        <v>0.95684023540981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9770902245856414</v>
+        <v>0.9765419379099509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2282</v>
@@ -6759,19 +6759,19 @@
         <v>1948626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1936134</v>
+        <v>1936683</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1959698</v>
+        <v>1958437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9786480982361451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9723740649571958</v>
+        <v>0.9726500946203726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842084624814903</v>
+        <v>0.9835751935010579</v>
       </c>
     </row>
     <row r="15">
@@ -6863,19 +6863,19 @@
         <v>12795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7349</v>
+        <v>7422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21023</v>
+        <v>20241</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02266129402351825</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01301557411873143</v>
+        <v>0.01314597099323148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03723436894255761</v>
+        <v>0.03585061936947909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -6884,19 +6884,19 @@
         <v>55884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45387</v>
+        <v>45356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69892</v>
+        <v>67909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06743326892087485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05476673864245606</v>
+        <v>0.05472941622994516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08433670749352534</v>
+        <v>0.08194354824817039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -6905,19 +6905,19 @@
         <v>68679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56217</v>
+        <v>56931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83675</v>
+        <v>83082</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04929091956284717</v>
+        <v>0.04929091956284715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04034713745239984</v>
+        <v>0.04085965784693939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06005399711627037</v>
+        <v>0.05962815032861394</v>
       </c>
     </row>
     <row r="17">
@@ -6934,19 +6934,19 @@
         <v>551805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>543577</v>
+        <v>544359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>557251</v>
+        <v>557178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9773387059764818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9627656310574425</v>
+        <v>0.9641493806305209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9869844258812686</v>
+        <v>0.9868540290067684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1195</v>
@@ -6955,19 +6955,19 @@
         <v>772845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>758837</v>
+        <v>760820</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>783342</v>
+        <v>783373</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9325667310791252</v>
+        <v>0.9325667310791251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9156632925064748</v>
+        <v>0.9180564517518296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9452332613575442</v>
+        <v>0.9452705837700549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1721</v>
@@ -6976,19 +6976,19 @@
         <v>1324651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1309655</v>
+        <v>1310248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337113</v>
+        <v>1336399</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9507090804371529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9399460028837298</v>
+        <v>0.9403718496713861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9596528625476002</v>
+        <v>0.9591403421530605</v>
       </c>
     </row>
     <row r="18">
@@ -7093,19 +7093,19 @@
         <v>38414</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28765</v>
+        <v>28368</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51156</v>
+        <v>51178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04556930205084828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.034123033843776</v>
+        <v>0.03365209948559474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06068439443380749</v>
+        <v>0.06071048914042033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -7114,19 +7114,19 @@
         <v>38414</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28842</v>
+        <v>29321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50687</v>
+        <v>53621</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03556169405872135</v>
+        <v>0.03556169405872134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02670016703338157</v>
+        <v>0.02714343040191751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04692325972093277</v>
+        <v>0.04963909994360616</v>
       </c>
     </row>
     <row r="20">
@@ -7156,19 +7156,19 @@
         <v>804567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>791825</v>
+        <v>791803</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>814216</v>
+        <v>814613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9544306979491517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9393156055661924</v>
+        <v>0.9392895108595796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.965876966156224</v>
+        <v>0.9663479005144051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -7177,19 +7177,19 @@
         <v>1041794</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1029521</v>
+        <v>1026587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1051366</v>
+        <v>1050887</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9644383059412788</v>
+        <v>0.9644383059412786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9530767402790672</v>
+        <v>0.9503609000563937</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9732998329666185</v>
+        <v>0.9728565695980823</v>
       </c>
     </row>
     <row r="21">
@@ -7281,19 +7281,19 @@
         <v>42035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31929</v>
+        <v>32212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55339</v>
+        <v>54982</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01223040977866577</v>
+        <v>0.01223040977866576</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009290041505749367</v>
+        <v>0.009372237477904248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01610131354227479</v>
+        <v>0.01599760804249856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>249</v>
@@ -7302,19 +7302,19 @@
         <v>160999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>140172</v>
+        <v>141277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>182271</v>
+        <v>183530</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04436289771506914</v>
+        <v>0.04436289771506915</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03862428306031276</v>
+        <v>0.03892855373778479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05022459929109167</v>
+        <v>0.05057144065874773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>306</v>
@@ -7323,19 +7323,19 @@
         <v>203033</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182378</v>
+        <v>180684</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229922</v>
+        <v>228607</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02873369557573938</v>
+        <v>0.02873369557573937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02581049704586892</v>
+        <v>0.02557071578422096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03253906962198585</v>
+        <v>0.03235288459551605</v>
       </c>
     </row>
     <row r="23">
@@ -7352,19 +7352,19 @@
         <v>3394876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3381572</v>
+        <v>3381929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3404982</v>
+        <v>3404699</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9877695902213344</v>
+        <v>0.9877695902213341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9838986864577249</v>
+        <v>0.9840023919575015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9907099584942506</v>
+        <v>0.9906277625220957</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4985</v>
@@ -7373,19 +7373,19 @@
         <v>3468126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3446854</v>
+        <v>3445595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3488953</v>
+        <v>3487848</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9556371022849308</v>
+        <v>0.9556371022849309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9497754007089081</v>
+        <v>0.9494285593412523</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9613757169396872</v>
+        <v>0.9610714462622149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8223</v>
@@ -7394,19 +7394,19 @@
         <v>6863003</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6836114</v>
+        <v>6837429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6883658</v>
+        <v>6885352</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9712663044242607</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9674609303780145</v>
+        <v>0.9676471154044837</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9741895029541312</v>
+        <v>0.974429284215779</v>
       </c>
     </row>
     <row r="24">
